--- a/biology/Médecine/Tigécycline/Tigécycline.xlsx
+++ b/biology/Médecine/Tigécycline/Tigécycline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tig%C3%A9cycline</t>
+          <t>Tigécycline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La tigécycline est un antibiotique du groupe des glycylcyclines, qui inhibe la synthèse protéique des bactéries en se fixant sur la sous-unité ribosomale 30S et en bloquant l’entrée d’ARNt amino-acyl dans le site A du ribosome[3]. Ceci empêche l’incorporation des résidus acides aminés dans les chaînes peptidiques en formation[3].
+La tigécycline est un antibiotique du groupe des glycylcyclines, qui inhibe la synthèse protéique des bactéries en se fixant sur la sous-unité ribosomale 30S et en bloquant l’entrée d’ARNt amino-acyl dans le site A du ribosome. Ceci empêche l’incorporation des résidus acides aminés dans les chaînes peptidiques en formation.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tig%C3%A9cycline</t>
+          <t>Tigécycline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La tigécycline est indiqué chez l’adulte et l’enfant âgé de 8 ans et plus dans le traitement des infections suivantes : 
 Infections compliquées de la peau et des tissus mous (ICPTM), à l’exclusion des infections du pied chez les patients diabétiques ;
-Infections intra-abdominales compliquées (IIAC)[4].</t>
+Infections intra-abdominales compliquées (IIAC).</t>
         </is>
       </c>
     </row>
